--- a/assets/Archivos/Proceso/stock.xlsx
+++ b/assets/Archivos/Proceso/stock.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM Proyecto\SFM Proyecto\assets\Archivos\Proceso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM-Proyecto\assets\Archivos\Proceso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EAE953E-9422-46EA-9AC8-34CF9B665B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B086CF23-EC95-4A73-B223-3AF3BFC532BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Producto</t>
   </si>
@@ -48,9 +48,6 @@
   <si>
     <t>EA888 EVO
 Meta: 2 hrs</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>EA888 BZ
@@ -69,8 +66,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -483,25 +489,25 @@
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -509,25 +515,25 @@
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -535,25 +541,25 @@
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -561,26 +567,30 @@
       <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H1 A5 A2 D2:H2 A3 D3:H3 A4 D4:H4 D5:H5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H1 A5 A2 A3 A4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>